--- a/Feature-Analysis/Resize Feature/s_28_right.xlsx
+++ b/Feature-Analysis/Resize Feature/s_28_right.xlsx
@@ -1687,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="0">
-        <v>737791.4981018519</v>
+        <v>738157.4981018519</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -2382,7 +2382,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="0">
-        <v>737791.49876157404</v>
+        <v>738157.49876157404</v>
       </c>
       <c r="C3" s="0">
         <v>56.999992579221725</v>
@@ -3077,7 +3077,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="0">
-        <v>737791.4990856481</v>
+        <v>738157.4990856481</v>
       </c>
       <c r="C4" s="0">
         <v>84.999991580843925</v>
@@ -3772,7 +3772,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="0">
-        <v>737791.49943287042</v>
+        <v>738157.49943287042</v>
       </c>
       <c r="C5" s="0">
         <v>114.99999985098839</v>
@@ -4467,7 +4467,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="0">
-        <v>737791.49979166663</v>
+        <v>738157.49979166663</v>
       </c>
       <c r="C6" s="0">
         <v>145.99999263882637</v>
@@ -5162,7 +5162,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="0">
-        <v>737791.50012731482</v>
+        <v>738157.50012731482</v>
       </c>
       <c r="C7" s="0">
         <v>174.9999962747097</v>
@@ -5857,7 +5857,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="0">
-        <v>737791.5005208333</v>
+        <v>738157.5005208333</v>
       </c>
       <c r="C8" s="0">
         <v>208.99999290704727</v>
@@ -6552,7 +6552,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="0">
-        <v>737791.50082175923</v>
+        <v>738157.50082175923</v>
       </c>
       <c r="C9" s="0">
         <v>234.99999269843102</v>
@@ -7247,7 +7247,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="0">
-        <v>737791.50118055556</v>
+        <v>738157.50118055556</v>
       </c>
       <c r="C10" s="0">
         <v>265.9999955445528</v>
@@ -7942,7 +7942,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="0">
-        <v>737791.50152777776</v>
+        <v>738157.50152777776</v>
       </c>
       <c r="C11" s="0">
         <v>295.99999375641346</v>
@@ -8637,7 +8637,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="0">
-        <v>737791.5018981481</v>
+        <v>738157.5018981481</v>
       </c>
       <c r="C12" s="0">
         <v>327.99999117851257</v>
@@ -9332,7 +9332,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="0">
-        <v>737791.50255787035</v>
+        <v>738157.50255787035</v>
       </c>
       <c r="C13" s="0">
         <v>384.9999938160181</v>
@@ -10027,7 +10027,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="0">
-        <v>737791.50290509255</v>
+        <v>738157.50290509255</v>
       </c>
       <c r="C14" s="0">
         <v>414.99999202787876</v>
@@ -10722,7 +10722,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="0">
-        <v>737791.50325231487</v>
+        <v>738157.50325231487</v>
       </c>
       <c r="C15" s="0">
         <v>445.00000029802322</v>
@@ -11417,7 +11417,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0">
-        <v>737791.50362268521</v>
+        <v>738157.50362268521</v>
       </c>
       <c r="C16" s="0">
         <v>476.99999772012234</v>
@@ -12112,7 +12112,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0">
-        <v>737791.50401620369</v>
+        <v>738157.50401620369</v>
       </c>
       <c r="C17" s="0">
         <v>510.99999435245991</v>
@@ -12807,7 +12807,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="0">
-        <v>737791.5043055556</v>
+        <v>738157.5043055556</v>
       </c>
       <c r="C18" s="0">
         <v>535.99999956786633</v>
@@ -13502,7 +13502,7 @@
         <v>1</v>
       </c>
       <c r="B19" s="0">
-        <v>737791.5046527778</v>
+        <v>738157.5046527778</v>
       </c>
       <c r="C19" s="0">
         <v>565.99999777972698</v>
@@ -14197,7 +14197,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="0">
-        <v>737791.50501157413</v>
+        <v>738157.50501157413</v>
       </c>
       <c r="C20" s="0">
         <v>597.00000062584877</v>
@@ -14892,7 +14892,7 @@
         <v>1</v>
       </c>
       <c r="B21" s="0">
-        <v>737791.50535879633</v>
+        <v>738157.50535879633</v>
       </c>
       <c r="C21" s="0">
         <v>626.99999883770943</v>
@@ -15587,7 +15587,7 @@
         <v>2</v>
       </c>
       <c r="B22" s="0">
-        <v>737791.50634259265</v>
+        <v>738157.50634259265</v>
       </c>
       <c r="C22" s="0">
         <v>712.00000047683716</v>
@@ -16282,7 +16282,7 @@
         <v>2</v>
       </c>
       <c r="B23" s="0">
-        <v>737791.50634259265</v>
+        <v>738157.50634259265</v>
       </c>
       <c r="C23" s="0">
         <v>712.00000047683716</v>
@@ -16977,7 +16977,7 @@
         <v>2</v>
       </c>
       <c r="B24" s="0">
-        <v>737791.50663194444</v>
+        <v>738157.50663194444</v>
       </c>
       <c r="C24" s="0">
         <v>736.99999563395977</v>
@@ -17672,7 +17672,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="0">
-        <v>737791.50699074077</v>
+        <v>738157.50699074077</v>
       </c>
       <c r="C25" s="0">
         <v>767.99999848008156</v>
@@ -18367,7 +18367,7 @@
         <v>2</v>
       </c>
       <c r="B26" s="0">
-        <v>737791.50731481484</v>
+        <v>738157.50731481484</v>
       </c>
       <c r="C26" s="0">
         <v>795.99999748170376</v>
@@ -19062,7 +19062,7 @@
         <v>2</v>
       </c>
       <c r="B27" s="0">
-        <v>737791.50787037041</v>
+        <v>738157.50787037041</v>
       </c>
       <c r="C27" s="0">
         <v>843.99999864399433</v>
@@ -19757,7 +19757,7 @@
         <v>2</v>
       </c>
       <c r="B28" s="0">
-        <v>737791.50805555552</v>
+        <v>738157.50805555552</v>
       </c>
       <c r="C28" s="0">
         <v>859.99999232590199</v>
@@ -20452,7 +20452,7 @@
         <v>2</v>
       </c>
       <c r="B29" s="0">
-        <v>737791.50841435185</v>
+        <v>738157.50841435185</v>
       </c>
       <c r="C29" s="0">
         <v>890.99999517202377</v>
@@ -21147,7 +21147,7 @@
         <v>2</v>
       </c>
       <c r="B30" s="0">
-        <v>737791.50912037038</v>
+        <v>738157.50912037038</v>
       </c>
       <c r="C30" s="0">
         <v>951.99999623000622</v>
@@ -21842,7 +21842,7 @@
         <v>2</v>
       </c>
       <c r="B31" s="0">
-        <v>737791.50912037038</v>
+        <v>738157.50912037038</v>
       </c>
       <c r="C31" s="0">
         <v>951.99999623000622</v>
@@ -22537,7 +22537,7 @@
         <v>2</v>
       </c>
       <c r="B32" s="0">
-        <v>737791.50979166664</v>
+        <v>738157.50979166664</v>
       </c>
       <c r="C32" s="0">
         <v>1009.9999934434891</v>
@@ -23232,7 +23232,7 @@
         <v>2</v>
       </c>
       <c r="B33" s="0">
-        <v>737791.51013888884</v>
+        <v>738157.51013888884</v>
       </c>
       <c r="C33" s="0">
         <v>1039.9999916553497</v>
@@ -23927,7 +23927,7 @@
         <v>2</v>
       </c>
       <c r="B34" s="0">
-        <v>737791.51048611116</v>
+        <v>738157.51048611116</v>
       </c>
       <c r="C34" s="0">
         <v>1069.9999999254942</v>
@@ -24622,7 +24622,7 @@
         <v>2</v>
       </c>
       <c r="B35" s="0">
-        <v>737791.51083333336</v>
+        <v>738157.51083333336</v>
       </c>
       <c r="C35" s="0">
         <v>1099.9999981373549</v>
@@ -25317,7 +25317,7 @@
         <v>2</v>
       </c>
       <c r="B36" s="0">
-        <v>737791.51116898144</v>
+        <v>738157.51116898144</v>
       </c>
       <c r="C36" s="0">
         <v>1128.9999917149544</v>
@@ -26012,7 +26012,7 @@
         <v>2</v>
       </c>
       <c r="B37" s="0">
-        <v>737791.51151620375</v>
+        <v>738157.51151620375</v>
       </c>
       <c r="C37" s="0">
         <v>1158.9999999850988</v>
@@ -26707,7 +26707,7 @@
         <v>2</v>
       </c>
       <c r="B38" s="0">
-        <v>737791.51184027782</v>
+        <v>738157.51184027782</v>
       </c>
       <c r="C38" s="0">
         <v>1186.999998986721</v>
@@ -27402,7 +27402,7 @@
         <v>2</v>
       </c>
       <c r="B39" s="0">
-        <v>737791.51219907403</v>
+        <v>738157.51219907403</v>
       </c>
       <c r="C39" s="0">
         <v>1217.999991774559</v>
@@ -28097,7 +28097,7 @@
         <v>2</v>
       </c>
       <c r="B40" s="0">
-        <v>737791.51254629635</v>
+        <v>738157.51254629635</v>
       </c>
       <c r="C40" s="0">
         <v>1248.0000000447035</v>
